--- a/CAP/KPI/Cybersecurity_KPI Data_FY18Q4.xlsx
+++ b/CAP/KPI/Cybersecurity_KPI Data_FY18Q4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlooff.EAGLEHILL\Desktop\Websites\GSA Interim Website\InterimPerformance-Dot-Gov-2018\CAP\KPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86B84E0E-41F9-487F-9BCC-F79C8D5F0509}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B26403-0320-4BF3-822B-22238B80D71F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Limit Personnel Access" sheetId="2" r:id="rId2"/>
     <sheet name="Protect Networks and Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -2745,7 +2745,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2863,10 +2863,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="8">
         <v>4</v>
@@ -2904,10 +2904,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -3396,10 +3396,10 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -3560,10 +3560,10 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -3642,10 +3642,10 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -3683,10 +3683,10 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -3765,10 +3765,10 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>3</v>
